--- a/1ª Entrega/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/1ª Entrega/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Instel-I\1ª Entrega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\Outros\IC\Github\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9E313D-1F68-402B-ADC7-8C1F1B388D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA9D7B-EB32-420F-80A8-4A6FE62F0FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,22 +18,11 @@
     <sheet name="Quadro_de_cargas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>Alunos: Gabriel Schettino Lucas e Ramon Rodrigues Morello</t>
   </si>
@@ -343,6 +332,9 @@
     <t>ILUM. EXTERNA</t>
   </si>
   <si>
+    <t>ILUM. INTERNA</t>
+  </si>
+  <si>
     <t>TOMADAS COZINHA</t>
   </si>
   <si>
@@ -403,9 +395,6 @@
       </rPr>
       <t>"Calculos explicitos - Memorial de calculo.docx"</t>
     </r>
-  </si>
-  <si>
-    <t>ILUM. INTERNA + CAMPAINHA</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2217,7 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
@@ -16179,10 +16168,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16388,7 +16377,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D6" s="36">
         <v>13</v>
@@ -16432,7 +16421,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
@@ -16476,7 +16465,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="37"/>
@@ -16520,7 +16509,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
@@ -16564,7 +16553,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
@@ -16608,7 +16597,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="37"/>
@@ -16652,7 +16641,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="37"/>
@@ -16696,7 +16685,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
@@ -16740,7 +16729,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
@@ -16782,7 +16771,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="37"/>
@@ -16824,7 +16813,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="37"/>
@@ -16866,7 +16855,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="37"/>
@@ -16908,7 +16897,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="37"/>
@@ -16950,7 +16939,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
@@ -16992,7 +16981,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
@@ -17034,7 +17023,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
@@ -17076,7 +17065,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="49"/>
@@ -17108,7 +17097,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="49"/>
@@ -17136,42 +17125,20 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="27" t="s">
-        <v>60</v>
+      <c r="B24" s="15">
+        <v>20</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42">
-        <f t="shared" ref="D24:K24" si="2">SUM(D5:D20)</f>
-        <v>21</v>
+      <c r="C24" s="46" t="s">
+        <v>95</v>
       </c>
-      <c r="E24" s="43">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F24" s="42">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G24" s="43">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="H24" s="44">
-        <f t="shared" si="2"/>
-        <v>18885</v>
-      </c>
-      <c r="I24" s="31">
-        <f t="shared" si="2"/>
-        <v>36185</v>
-      </c>
-      <c r="J24" s="27">
-        <f t="shared" si="2"/>
-        <v>2590</v>
-      </c>
-      <c r="K24" s="45">
-        <f t="shared" si="2"/>
-        <v>223.39280601288479</v>
-      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -17190,16 +17157,20 @@
     </row>
     <row r="25" spans="1:26" ht="19.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="B25" s="15">
+        <v>21</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -17218,16 +17189,42 @@
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="B26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42">
+        <f>SUM(D5:D25)</f>
+        <v>21</v>
+      </c>
+      <c r="E26" s="43">
+        <f>SUM(E5:E25)</f>
+        <v>4</v>
+      </c>
+      <c r="F26" s="42">
+        <f>SUM(F5:F25)</f>
+        <v>12</v>
+      </c>
+      <c r="G26" s="43">
+        <f>SUM(G5:G25)</f>
+        <v>22</v>
+      </c>
+      <c r="H26" s="44">
+        <f>SUM(H5:H25)</f>
+        <v>19185</v>
+      </c>
+      <c r="I26" s="31">
+        <f>SUM(I5:I25)</f>
+        <v>36485</v>
+      </c>
+      <c r="J26" s="27">
+        <f>SUM(J5:J25)</f>
+        <v>2810</v>
+      </c>
+      <c r="K26" s="45">
+        <f>SUM(K5:K25)</f>
+        <v>224.75644237652116</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -17580,7 +17577,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="19.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -17608,7 +17605,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="19.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -44600,6 +44597,62 @@
       <c r="Y1003" s="1"/>
       <c r="Z1003" s="1"/>
     </row>
+    <row r="1004" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="1"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+      <c r="Z1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="1"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="1"/>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
